--- a/マトリクス表（画面要件）.xlsx
+++ b/マトリクス表（画面要件）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF48E3E4-927F-47F7-B7FD-3F6E3C6C8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B1BCE5-1F5F-4627-B85D-920694065A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="540" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
+    <workbookView xWindow="10365" yWindow="1770" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス表（画面要件）" sheetId="2" r:id="rId1"/>
@@ -467,57 +467,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,314 +846,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3090F9-6F54-4D09-9A6C-2B3CCE1955C7}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="22.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+    <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+    <row r="15" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+    <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+    <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+    <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+    <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+    <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>41</v>
       </c>
     </row>

--- a/マトリクス表（画面要件）.xlsx
+++ b/マトリクス表（画面要件）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B1BCE5-1F5F-4627-B85D-920694065A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B73E8-9193-431E-A84A-271324D23AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="1770" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
+    <workbookView xWindow="2970" yWindow="3000" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス表（画面要件）" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -59,15 +59,9 @@
     <t>起動画面</t>
   </si>
   <si>
-    <t>ログアウト画面</t>
-  </si>
-  <si>
     <t>セッションを終了する画面</t>
   </si>
   <si>
-    <t>各機能画面</t>
-  </si>
-  <si>
     <t>パスワードリセット画面</t>
   </si>
   <si>
@@ -77,21 +71,9 @@
     <t>ユーザー登録画面</t>
   </si>
   <si>
-    <t>退会画面</t>
-  </si>
-  <si>
     <t>会員がシステムを退会する画面</t>
   </si>
   <si>
-    <t>設定画面</t>
-  </si>
-  <si>
-    <t>メインメニュー</t>
-  </si>
-  <si>
-    <t>収入登録画面</t>
-  </si>
-  <si>
     <t>会員が収入を入力・登録する画面</t>
   </si>
   <si>
@@ -107,9 +89,6 @@
     <t>支出一覧画面</t>
   </si>
   <si>
-    <t>登録済みの収入を一覧表示する画面</t>
-  </si>
-  <si>
     <t>登録済みの支出を一覧表示する画面</t>
   </si>
   <si>
@@ -119,9 +98,6 @@
     <t>収入データを削除する画面</t>
   </si>
   <si>
-    <t>支出削除画面</t>
-  </si>
-  <si>
     <t>支出データを削除する画面</t>
   </si>
   <si>
@@ -141,9 +117,6 @@
   </si>
   <si>
     <t>登録済みの支出内容を変更する画面</t>
-  </si>
-  <si>
-    <t>目標達成状況判定画面</t>
   </si>
   <si>
     <t>収支の目標との達成状況を表示する画面</t>
@@ -296,6 +269,65 @@
     <rPh sb="11" eb="13">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出削除画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支計算画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退会画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入一覧画面・支出一覧画面・収支計算画面・退会画面・ログアウト画面・問い合わせ画面に飛ぶためのメニュー画面</t>
+    <rPh sb="42" eb="43">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員画面</t>
+  </si>
+  <si>
+    <t>会員画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの収入を一覧表示する画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標達成状況判定画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -303,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +371,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -354,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -449,13 +488,65 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -467,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,14 +592,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,18 +962,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3090F9-6F54-4D09-9A6C-2B3CCE1955C7}">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="22.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="22.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -883,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>5</v>
@@ -892,32 +1010,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" ht="57" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
+      <c r="C4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -925,13 +1043,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -939,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -953,55 +1071,55 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>41</v>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1009,10 +1127,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -1022,28 +1140,28 @@
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1051,24 +1169,24 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -1078,14 +1196,14 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1093,69 +1211,83 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>29</v>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>22</v>
+      <c r="C20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="4">
+      <c r="B21" s="12">
         <v>19</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="4">
+      <c r="B22" s="15">
         <v>20</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>41</v>
+      <c r="C22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/マトリクス表（画面要件）.xlsx
+++ b/マトリクス表（画面要件）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B73E8-9193-431E-A84A-271324D23AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D5B76-3B06-4C32-8CE0-FBFDBE72E846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3000" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
+    <workbookView xWindow="-16605" yWindow="1395" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス表（画面要件）" sheetId="2" r:id="rId1"/>
@@ -130,14 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー一覧画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みユーザーを一覧表示する画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者画面</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -309,25 +301,39 @@
     <t>会員画面</t>
   </si>
   <si>
-    <t>会員画面</t>
+    <t>登録済みの収入を一覧表示する画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標達成状況判定画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ一権限変更</t>
+    <rPh sb="4" eb="8">
+      <t>ケンゲンヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの全ユーザ一覧表示し権限変更する画面</t>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員メニュー画面</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みの収入を一覧表示する画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収入登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標達成状況判定画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -964,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3090F9-6F54-4D09-9A6C-2B3CCE1955C7}">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1015,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>4</v>
@@ -1029,13 +1035,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1071,13 +1077,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1085,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1099,10 +1105,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>28</v>
@@ -1113,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>12</v>
@@ -1141,13 +1147,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1155,13 +1161,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1183,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
@@ -1197,13 +1203,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1239,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>27</v>
@@ -1253,13 +1259,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1267,13 +1273,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1281,13 +1287,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/マトリクス表（画面要件）.xlsx
+++ b/マトリクス表（画面要件）.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81903\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D5B76-3B06-4C32-8CE0-FBFDBE72E846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F35C0-7D18-49C5-BE2B-46FABC6B5721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16605" yWindow="1395" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
+    <workbookView xWindow="6670" yWindow="530" windowWidth="11270" windowHeight="9650" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス表（画面要件）" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -50,15 +48,9 @@
     <t>遷移前画面</t>
   </si>
   <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
     <t>ユーザーIDとパスワードでログインする画面</t>
   </si>
   <si>
-    <t>起動画面</t>
-  </si>
-  <si>
     <t>セッションを終了する画面</t>
   </si>
   <si>
@@ -99,9 +91,6 @@
   </si>
   <si>
     <t>支出データを削除する画面</t>
-  </si>
-  <si>
-    <t>収支計算画面</t>
   </si>
   <si>
     <t>収入と支出の計算を行う画面</t>
@@ -298,9 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員画面</t>
-  </si>
-  <si>
     <t>登録済みの収入を一覧表示する画面</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,6 +320,54 @@
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.会員メニュー画面</t>
+    <rPh sb="2" eb="4">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.管理者画面</t>
+    <rPh sb="2" eb="5">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19.問い合わせ一覧画面</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15.収支計算画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -341,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,13 +411,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -399,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -545,26 +572,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,25 +627,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,25 +975,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3090F9-6F54-4D09-9A6C-2B3CCE1955C7}">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="22.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.08203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.9140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,298 +1007,298 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>44</v>
+      <c r="C4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>48</v>
+      <c r="C20" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="12">
         <v>19</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="15">
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/マトリクス表（画面要件）.xlsx
+++ b/マトリクス表（画面要件）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81903\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F35C0-7D18-49C5-BE2B-46FABC6B5721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92F18B9-096E-482A-B07A-22F2A9781F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6670" yWindow="530" windowWidth="11270" windowHeight="9650" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
+    <workbookView xWindow="1950" yWindow="1875" windowWidth="21600" windowHeight="14325" xr2:uid="{188915BA-380D-4B1A-A7BA-C88354DBAED7}"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス表（画面要件）" sheetId="2" r:id="rId1"/>
@@ -69,16 +69,10 @@
     <t>会員が収入を入力・登録する画面</t>
   </si>
   <si>
-    <t>収入一覧画面</t>
-  </si>
-  <si>
     <t>支出登録画面</t>
   </si>
   <si>
     <t>会員が支出を入力・登録する画面</t>
-  </si>
-  <si>
-    <t>支出一覧画面</t>
   </si>
   <si>
     <t>登録済みの支出を一覧表示する画面</t>
@@ -368,6 +362,14 @@
   </si>
   <si>
     <t>15.収支計算画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.収入一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.支出一覧画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,25 +977,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3090F9-6F54-4D09-9A6C-2B3CCE1955C7}">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="22.58203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="39.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.9140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,49 +1009,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="57" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="5" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1060,10 +1062,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1071,234 +1073,234 @@
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="12">
         <v>19</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="15">
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
